--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/非金属矿物制品业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/非金属矿物制品业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,280 +523,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.130629406221343</v>
+        <v>0.135006317898066</v>
       </c>
       <c r="C2" t="n">
-        <v>0.047088968375903</v>
+        <v>0.049184032552967</v>
       </c>
       <c r="D2" t="n">
-        <v>0.045794203870657</v>
+        <v>0.056724135402128</v>
       </c>
       <c r="E2" t="n">
-        <v>0.268492209879544</v>
+        <v>0.284608535410372</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002640736348165</v>
+        <v>0.003324359655723</v>
       </c>
       <c r="G2" t="n">
-        <v>0.035912113108435</v>
+        <v>0.047047643423145</v>
       </c>
       <c r="H2" t="n">
-        <v>0.082255474802754</v>
+        <v>0.095034839638532</v>
       </c>
       <c r="I2" t="n">
-        <v>0.261176150805006</v>
+        <v>0.276289204468613</v>
       </c>
       <c r="J2" t="n">
-        <v>0.115282616899458</v>
+        <v>0.130360186314742</v>
       </c>
       <c r="K2" t="n">
-        <v>0.224956554101764</v>
+        <v>0.225378370313044</v>
       </c>
       <c r="L2" t="n">
-        <v>0.036366341577572</v>
+        <v>0.039649171818591</v>
       </c>
       <c r="M2" t="n">
-        <v>0.118746689856906</v>
+        <v>0.14208149640014</v>
       </c>
       <c r="N2" t="n">
-        <v>0.32331839416504</v>
+        <v>0.397696163721317</v>
       </c>
       <c r="O2" t="n">
-        <v>0.230744454133142</v>
+        <v>0.235437993149599</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0677540200931</v>
+        <v>0.081407120907269</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.217391820369059</v>
+        <v>0.260181032639583</v>
       </c>
       <c r="R2" t="n">
-        <v>0.034683957598938</v>
+        <v>0.042533299358835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.135006317898066</v>
+        <v>0.087997882565702</v>
       </c>
       <c r="C3" t="n">
-        <v>0.049184032552967</v>
+        <v>0.046446568176446</v>
       </c>
       <c r="D3" t="n">
-        <v>0.056724135402128</v>
+        <v>0.04752288013159</v>
       </c>
       <c r="E3" t="n">
-        <v>0.284608535410372</v>
+        <v>0.275950965666039</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003324359655723</v>
+        <v>0.008868865264265001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.047047643423145</v>
+        <v>0.068041371544388</v>
       </c>
       <c r="H3" t="n">
-        <v>0.095034839638532</v>
+        <v>0.091777413725701</v>
       </c>
       <c r="I3" t="n">
-        <v>0.276289204468613</v>
+        <v>0.199873312904735</v>
       </c>
       <c r="J3" t="n">
-        <v>0.130360186314742</v>
+        <v>0.11980226280364</v>
       </c>
       <c r="K3" t="n">
-        <v>0.225378370313044</v>
+        <v>0.187372785483668</v>
       </c>
       <c r="L3" t="n">
-        <v>0.039649171818591</v>
+        <v>0.042527266087883</v>
       </c>
       <c r="M3" t="n">
-        <v>0.14208149640014</v>
+        <v>0.123339602635323</v>
       </c>
       <c r="N3" t="n">
-        <v>0.397696163721317</v>
+        <v>0.364054014625885</v>
       </c>
       <c r="O3" t="n">
-        <v>0.235437993149599</v>
+        <v>0.213272043410463</v>
       </c>
       <c r="P3" t="n">
-        <v>0.081407120907269</v>
+        <v>0.098081349841579</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.260181032639583</v>
+        <v>0.264331005972342</v>
       </c>
       <c r="R3" t="n">
-        <v>0.042533299358835</v>
+        <v>0.043040561384185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.087997882565702</v>
+        <v>0.103332718350024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.046446568176446</v>
+        <v>0.067573633004992</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04752288013159</v>
+        <v>0.07452319991783</v>
       </c>
       <c r="E4" t="n">
-        <v>0.275950965666039</v>
+        <v>0.329218373514358</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008868865264265001</v>
+        <v>0.011226091342059</v>
       </c>
       <c r="G4" t="n">
-        <v>0.068041371544388</v>
+        <v>0.116090606429605</v>
       </c>
       <c r="H4" t="n">
-        <v>0.091777413725701</v>
+        <v>0.139478322372187</v>
       </c>
       <c r="I4" t="n">
-        <v>0.199873312904735</v>
+        <v>0.269724681549248</v>
       </c>
       <c r="J4" t="n">
-        <v>0.11980226280364</v>
+        <v>0.103581741670065</v>
       </c>
       <c r="K4" t="n">
-        <v>0.187372785483668</v>
+        <v>0.188146958025386</v>
       </c>
       <c r="L4" t="n">
-        <v>0.042527266087883</v>
+        <v>0.06254953740946601</v>
       </c>
       <c r="M4" t="n">
-        <v>0.123339602635323</v>
+        <v>0.166372752950506</v>
       </c>
       <c r="N4" t="n">
-        <v>0.364054014625885</v>
+        <v>0.291246636992027</v>
       </c>
       <c r="O4" t="n">
-        <v>0.213272043410463</v>
+        <v>0.227420218242134</v>
       </c>
       <c r="P4" t="n">
-        <v>0.098081349841579</v>
+        <v>0.13408622175678</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.264331005972342</v>
+        <v>0.279400523008191</v>
       </c>
       <c r="R4" t="n">
-        <v>0.043040561384185</v>
+        <v>0.074319354749098</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.103332718350024</v>
+        <v>0.017453974067472</v>
       </c>
       <c r="C5" t="n">
-        <v>0.067573633004992</v>
+        <v>0.113911831177707</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07452319991783</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.329218373514358</v>
-      </c>
+        <v>0.033307747871802</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.011226091342059</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.116090606429605</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.139478322372187</v>
-      </c>
+        <v>0.00251574655397</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.269724681549248</v>
+        <v>0.177265431415466</v>
       </c>
       <c r="J5" t="n">
-        <v>0.103581741670065</v>
+        <v>0.299721870709608</v>
       </c>
       <c r="K5" t="n">
-        <v>0.188146958025386</v>
+        <v>0.144161424576787</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06254953740946601</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.166372752950506</v>
-      </c>
+        <v>0.030453286535363</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.291246636992027</v>
+        <v>0.281152144174324</v>
       </c>
       <c r="O5" t="n">
-        <v>0.227420218242134</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.13408622175678</v>
-      </c>
+        <v>0.163079341159193</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.279400523008191</v>
+        <v>0.241464015684348</v>
       </c>
       <c r="R5" t="n">
-        <v>0.074319354749098</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.017453974067472</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.113911831177707</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.033307747871802</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.00251574655397</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.177265431415466</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.299721870709608</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.144161424576787</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.030453286535363</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.281152144174324</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.163079341159193</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0.241464015684348</v>
-      </c>
-      <c r="R6" t="n">
         <v>0.030777566320768</v>
       </c>
     </row>
